--- a/target/classes/com/madhu/uiautomation/data/TestData.xlsx
+++ b/target/classes/com/madhu/uiautomation/data/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginvalid" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>userName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>madhu</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -107,10 +110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -391,7 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -434,14 +438,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
